--- a/PCB_Hardware/DC-DC converter/Bill of materials DC-DC converter.xlsx
+++ b/PCB_Hardware/DC-DC converter/Bill of materials DC-DC converter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nordic\nRF-Beehavior-Firmware\PCB_Hardware\DC-DC converter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D6D4F9-F748-45F2-A3E7-8E9AAC427353}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8246B3-D446-4E87-BEA6-C3479859AE45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{93888843-9207-4FF9-BDF7-347EDE311102}"/>
+    <workbookView xWindow="-26805" yWindow="2790" windowWidth="21600" windowHeight="12735" xr2:uid="{93888843-9207-4FF9-BDF7-347EDE311102}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of materials DC-DC convert" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
   <si>
     <t>Comment</t>
   </si>
@@ -129,9 +129,6 @@
     <t>64900211022</t>
   </si>
   <si>
-    <t>WR-MPC4 4.2mm Male Single Row Angled Header with Mounting Flanges for Screw-in Retention , 2p</t>
-  </si>
-  <si>
     <t>P1</t>
   </si>
   <si>
@@ -165,27 +162,15 @@
     <t>0R 0805 (2012 Metric)  SMD</t>
   </si>
   <si>
-    <t>R3, R4, R5</t>
-  </si>
-  <si>
     <t>Mrf. Part No.</t>
   </si>
   <si>
-    <t>SM0402RC</t>
-  </si>
-  <si>
-    <t>64900613722DEC</t>
-  </si>
-  <si>
     <t>MAL213638221E3</t>
   </si>
   <si>
     <t>Selger</t>
   </si>
   <si>
-    <t>Digikey</t>
-  </si>
-  <si>
     <t>We: 885012207041</t>
   </si>
   <si>
@@ -198,26 +183,47 @@
     <t>Farnell</t>
   </si>
   <si>
-    <t>DIgikey</t>
-  </si>
-  <si>
-    <t>RK73G2ATTD1001D</t>
-  </si>
-  <si>
-    <t>RK73Z2BTTD</t>
-  </si>
-  <si>
-    <t>Cable crimps</t>
-  </si>
-  <si>
     <t>Female connector</t>
+  </si>
+  <si>
+    <t>Solcelle</t>
+  </si>
+  <si>
+    <t>https://voltaicsystems.com/3-5-watt-panel/</t>
+  </si>
+  <si>
+    <t>Voltaic</t>
+  </si>
+  <si>
+    <t>&lt;- Finner kun på farnell</t>
+  </si>
+  <si>
+    <t>RN73H2ATTD1001B25</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>MCWR08X0000FTL</t>
+  </si>
+  <si>
+    <t>we: 649500116015</t>
+  </si>
+  <si>
+    <t>Pre crimped wires</t>
+  </si>
+  <si>
+    <t>WR-MPC4 4.2mm Male Single Row Angled Header with Mounting Flanges for Screw-in Retention , 2p (male connnector)</t>
+  </si>
+  <si>
+    <t>5988A10107F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,8 +248,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,12 +265,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD3D3D3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,8 +306,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -617,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1708CE-8F8D-4600-BB9B-320791DAACD1}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,7 +640,7 @@
     <col min="7" max="7" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -651,13 +657,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -674,13 +680,13 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -697,13 +703,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -723,10 +729,13 @@
         <v>13</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -746,10 +755,10 @@
         <v>17</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -769,10 +778,10 @@
         <v>21</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -788,22 +797,22 @@
       <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>29</v>
@@ -815,99 +824,99 @@
         <v>29</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1">
-        <v>3</v>
-      </c>
-      <c r="F11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>55</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1">
         <v>20</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>45</v>
+      <c r="F12" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="6" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -915,9 +924,26 @@
         <v>3</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>51</v>
       </c>
     </row>

--- a/PCB_Hardware/DC-DC converter/Bill of materials DC-DC converter.xlsx
+++ b/PCB_Hardware/DC-DC converter/Bill of materials DC-DC converter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nordic\nRF-Beehavior-Firmware\PCB_Hardware\DC-DC converter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8246B3-D446-4E87-BEA6-C3479859AE45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0C4743-0BBB-4AA6-8738-5D2F34E76EA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26805" yWindow="2790" windowWidth="21600" windowHeight="12735" xr2:uid="{93888843-9207-4FF9-BDF7-347EDE311102}"/>
+    <workbookView xWindow="3375" yWindow="1590" windowWidth="21600" windowHeight="12735" xr2:uid="{93888843-9207-4FF9-BDF7-347EDE311102}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of materials DC-DC convert" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
   <si>
     <t>Comment</t>
   </si>
@@ -162,15 +162,9 @@
     <t>0R 0805 (2012 Metric)  SMD</t>
   </si>
   <si>
-    <t>Mrf. Part No.</t>
-  </si>
-  <si>
     <t>MAL213638221E3</t>
   </si>
   <si>
-    <t>Selger</t>
-  </si>
-  <si>
     <t>We: 885012207041</t>
   </si>
   <si>
@@ -195,9 +189,6 @@
     <t>Voltaic</t>
   </si>
   <si>
-    <t>&lt;- Finner kun på farnell</t>
-  </si>
-  <si>
     <t>RN73H2ATTD1001B25</t>
   </si>
   <si>
@@ -217,6 +208,33 @@
   </si>
   <si>
     <t>5988A10107F</t>
+  </si>
+  <si>
+    <t>Why do we need this?</t>
+  </si>
+  <si>
+    <t>Provider</t>
+  </si>
+  <si>
+    <t>Component for DC-DC regulator PCB</t>
+  </si>
+  <si>
+    <t>Wires with crimed contact for MPC4 connector</t>
+  </si>
+  <si>
+    <t>Solar pannel to power system</t>
+  </si>
+  <si>
+    <t>Mrf. Part No. / LINK</t>
+  </si>
+  <si>
+    <t>https://voltaicsystems.com/extension-with-exposed-leads/</t>
+  </si>
+  <si>
+    <t>Female connector to connect wires to PCB</t>
+  </si>
+  <si>
+    <t>Extention cable to connect wires to PCB</t>
   </si>
 </sst>
 </file>
@@ -623,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1708CE-8F8D-4600-BB9B-320791DAACD1}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,6 +656,7 @@
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -657,10 +676,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>43</v>
+        <v>58</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -680,10 +702,13 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -703,10 +728,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>46</v>
+      <c r="H3" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -729,10 +757,10 @@
         <v>13</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>52</v>
+        <v>45</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -755,7 +783,10 @@
         <v>17</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -778,7 +809,10 @@
         <v>21</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -798,10 +832,13 @@
         <v>2</v>
       </c>
       <c r="F7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -809,7 +846,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>30</v>
@@ -824,7 +861,10 @@
         <v>29</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -847,7 +887,10 @@
         <v>31</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -867,10 +910,13 @@
         <v>2</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -881,7 +927,7 @@
         <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>38</v>
@@ -890,33 +936,39 @@
         <v>1</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -924,16 +976,19 @@
         <v>3</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -941,10 +996,31 @@
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/PCB_Hardware/DC-DC converter/Bill of materials DC-DC converter.xlsx
+++ b/PCB_Hardware/DC-DC converter/Bill of materials DC-DC converter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nordic\nRF-Beehavior-Firmware\PCB_Hardware\DC-DC converter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0C4743-0BBB-4AA6-8738-5D2F34E76EA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34071542-191E-499E-BA7E-5C5F2CEF934D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3375" yWindow="1590" windowWidth="21600" windowHeight="12735" xr2:uid="{93888843-9207-4FF9-BDF7-347EDE311102}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
   <si>
     <t>Comment</t>
   </si>
@@ -87,9 +87,6 @@
     <t>D1</t>
   </si>
   <si>
-    <t>STM-QFN1610</t>
-  </si>
-  <si>
     <t>10103594-0001LF</t>
   </si>
   <si>
@@ -165,21 +162,9 @@
     <t>MAL213638221E3</t>
   </si>
   <si>
-    <t>We: 885012207041</t>
-  </si>
-  <si>
-    <t>We: 649002013322</t>
-  </si>
-  <si>
-    <t>Wurth electonics</t>
-  </si>
-  <si>
     <t>Farnell</t>
   </si>
   <si>
-    <t>Female connector</t>
-  </si>
-  <si>
     <t>Solcelle</t>
   </si>
   <si>
@@ -198,12 +183,6 @@
     <t>MCWR08X0000FTL</t>
   </si>
   <si>
-    <t>we: 649500116015</t>
-  </si>
-  <si>
-    <t>Pre crimped wires</t>
-  </si>
-  <si>
     <t>WR-MPC4 4.2mm Male Single Row Angled Header with Mounting Flanges for Screw-in Retention , 2p (male connnector)</t>
   </si>
   <si>
@@ -219,9 +198,6 @@
     <t>Component for DC-DC regulator PCB</t>
   </si>
   <si>
-    <t>Wires with crimed contact for MPC4 connector</t>
-  </si>
-  <si>
     <t>Solar pannel to power system</t>
   </si>
   <si>
@@ -235,13 +211,31 @@
   </si>
   <si>
     <t>Extention cable to connect wires to PCB</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>Female connector (MPC3)</t>
+  </si>
+  <si>
+    <t>Wire crimps 3.00mm (MPC3)</t>
+  </si>
+  <si>
+    <t>Crimp contacts for MPC3 connector</t>
+  </si>
+  <si>
+    <t>662002 113322</t>
+  </si>
+  <si>
+    <t>GRM219R61C226ME15L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +262,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -314,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -325,6 +326,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -641,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1708CE-8F8D-4600-BB9B-320791DAACD1}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +661,7 @@
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="30" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" customWidth="1"/>
     <col min="8" max="8" width="42.42578125" customWidth="1"/>
   </cols>
@@ -676,13 +683,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -702,13 +709,13 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -728,13 +735,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -747,8 +754,8 @@
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
+      <c r="D4" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -757,218 +764,218 @@
         <v>13</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>29</v>
+      <c r="D8" s="11">
+        <v>66200221022</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>29</v>
+      <c r="F8" s="11">
+        <v>66200221022</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1">
         <v>4</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>53</v>
+      <c r="F12" s="7">
+        <v>66200113722</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="6" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -976,19 +983,19 @@
         <v>3</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -996,32 +1003,37 @@
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="6">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="F19" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
